--- a/data/cost/PP_Sup_cost_ind.xlsx
+++ b/data/cost/PP_Sup_cost_ind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E27478-4D09-EB4E-A9C5-19B5F7BA2B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262BDACF-DCB9-D842-913B-F7CE3FBFF9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1040" windowWidth="23780" windowHeight="17980" activeTab="2" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
+    <workbookView xWindow="14140" yWindow="500" windowWidth="19440" windowHeight="17980" activeTab="3" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="shredding" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,27 @@
     <sheet name="granulate" sheetId="3" r:id="rId3"/>
     <sheet name="conditioning" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
   <si>
     <t>machine_purchase_cost_[€]</t>
   </si>
@@ -88,9 +98,6 @@
   </si>
   <si>
     <t>maintenance_rate_[€/h]</t>
-  </si>
-  <si>
-    <t>75,41</t>
   </si>
 </sst>
 </file>
@@ -128,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,16 +143,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CECAF4-10EE-7547-8F9A-E08E88E519F7}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="G1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,37 +592,42 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3500</v>
+        <v>11260</v>
       </c>
       <c r="B3">
-        <v>4.6E-5</v>
+        <f>0.000046*0.007</f>
+        <v>3.22E-7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>4.6E-5</v>
+        <f>0.000046*0.007</f>
+        <v>3.22E-7</v>
       </c>
       <c r="E3">
-        <v>0.14299999999999999</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>8.3000000000000004E-2</v>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0.083*0.056</f>
+        <v>4.6480000000000002E-3</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <f>0.8*0.056</f>
+        <v>4.4800000000000006E-2</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <f>0.4*0.056</f>
+        <v>2.2400000000000003E-2</v>
       </c>
       <c r="K3">
-        <v>75.41</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -645,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14329C3B-818D-974A-839B-1CDF92A21CC9}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="A2" zoomScale="119" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,37 +780,41 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="B3">
-        <v>1.2199999999999999E-3</v>
+        <f>4.28*10^-7</f>
+        <v>4.2800000000000002E-7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>1.2199999999999999E-3</v>
+        <f>4.28*10^-7</f>
+        <v>4.2800000000000002E-7</v>
       </c>
       <c r="E3">
-        <v>0.82599999999999996</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>0.66</v>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0.083*0.72</f>
+        <v>5.9760000000000001E-2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
+        <f>0.4*0.72</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -828,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F903924-2D1B-F649-8D6E-329FE2160CED}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,37 +967,37 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2.3E-5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.3E-5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>75.41</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1011,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261B8B2-5703-4A47-9A2B-A87AD92FEE9B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
